--- a/Работа/Работа СЕРВЕРА.xlsx
+++ b/Работа/Работа СЕРВЕРА.xlsx
@@ -194,10 +194,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,14 +495,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -586,7 +586,7 @@
       <c r="C17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
     </row>
